--- a/static/form/정류장관리 엑셀 업로드 양식.xlsx
+++ b/static/form/정류장관리 엑셀 업로드 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_D112B5708706885F870A4C57980C74CB2C3FEBF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DBA3A1-75D2-44DC-BAD0-7D0B1AC1A90D}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_D112B5708706885F870A4C57980C74CB2C3FEBF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE26188D-87CC-495E-98A9-1C16665221D3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>kun lee</author>
+    <author>태환 신</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -236,6 +237,14 @@
           </rPr>
           <t>.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{D32F12D8-04DB-4B3F-BF3A-DCA3D7FE4176}">
+      <text>
+        <t xml:space="preserve">1, 2, 3, A, B, C
+위 항목 중 선택해서 값을 입력해 주세요. 여러 개를 선택할 경우 ', '로 구분하여 입력해 주세요.
+ex) 1, 2, A
+</t>
       </text>
     </comment>
   </commentList>
@@ -243,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +270,9 @@
   </si>
   <si>
     <t>참조사항</t>
+  </si>
+  <si>
+    <t>종류</t>
   </si>
   <si>
     <t>테스트</t>
@@ -274,6 +286,9 @@
   </si>
   <si>
     <t>126.123123123</t>
+  </si>
+  <si>
+    <t>1, 3</t>
   </si>
 </sst>
 </file>
@@ -702,23 +717,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.375" style="4" customWidth="1"/>
     <col min="4" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="30.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -737,28 +753,34 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/static/form/정류장관리 엑셀 업로드 양식.xlsx
+++ b/static/form/정류장관리 엑셀 업로드 양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_D112B5708706885F870A4C57980C74CB2C3FEBF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE26188D-87CC-495E-98A9-1C16665221D3}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_D112B5708706885F870A4C57980C74CB2C3FEBF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76C09B6A-0B80-4474-BF47-CCE2921E8D53}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,14 @@
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{D32F12D8-04DB-4B3F-BF3A-DCA3D7FE4176}">
       <text>
-        <t xml:space="preserve">1, 2, 3, A, B, C
+        <t xml:space="preserve">차고지
+첫 정류장 대기장소
+정류장
+사업장
+대기장소
+마지막 정류장
 위 항목 중 선택해서 값을 입력해 주세요. 여러 개를 선택할 경우 ', '로 구분하여 입력해 주세요.
-ex) 1, 2, A
+ex) 차고지, 첫 정류장 대기장
 </t>
       </text>
     </comment>
@@ -288,7 +293,7 @@
     <t>126.123123123</t>
   </si>
   <si>
-    <t>1, 3</t>
+    <t>차고지</t>
   </si>
 </sst>
 </file>
@@ -719,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
